--- a/Excel_101_Workshop.xlsx
+++ b/Excel_101_Workshop.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="340">
   <si>
     <t>Nancy</t>
   </si>
@@ -1022,12 +1022,6 @@
   </si>
   <si>
     <t>Introduction</t>
-  </si>
-  <si>
-    <t>&gt;10000</t>
-  </si>
-  <si>
-    <t>&lt;10000</t>
   </si>
   <si>
     <t>Remove Legends</t>
@@ -1517,6 +1511,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,8 +1522,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Currency" xfId="6" builtinId="4"/>
@@ -1577,1319 +1571,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Charts 2'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Week 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Charts 2'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Hank Washington</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Xing Hua Long</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Aaron Ray, Jr.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linda Graebner</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Kyong Chen </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Katerina Wilson</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Tony Jackson</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Charts 2'!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3FF3-4E74-B1B2-4D8E275EE45A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Charts 2'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Week 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Charts 2'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Hank Washington</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Xing Hua Long</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Aaron Ray, Jr.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linda Graebner</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Kyong Chen </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Katerina Wilson</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Tony Jackson</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Charts 2'!$C$3:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3FF3-4E74-B1B2-4D8E275EE45A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Charts 2'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Week 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Charts 2'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Hank Washington</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Xing Hua Long</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Aaron Ray, Jr.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linda Graebner</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Kyong Chen </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Katerina Wilson</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Tony Jackson</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Charts 2'!$D$3:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3FF3-4E74-B1B2-4D8E275EE45A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Charts 2'!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Week 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Charts 2'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Hank Washington</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Xing Hua Long</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Aaron Ray, Jr.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linda Graebner</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Kyong Chen </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Katerina Wilson</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Tony Jackson</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Charts 2'!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3FF3-4E74-B1B2-4D8E275EE45A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="944874399"/>
-        <c:axId val="944876895"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Charts 2'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Proficiency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Charts 2'!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Hank Washington</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Xing Hua Long</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Aaron Ray, Jr.</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Linda Graebner</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Kyong Chen </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Katerina Wilson</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Tony Jackson</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Charts 2'!$F$3:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76500000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3FF3-4E74-B1B2-4D8E275EE45A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="944875647"/>
-        <c:axId val="1531518751"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="944874399"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="944876895"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="944876895"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="944874399"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1531518751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="944875647"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="944875647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1531518751"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3047,41 +1728,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>833437</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2628900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3123,7 +1769,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3166,7 +1812,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4163,7 +2809,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="N3" s="54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -4194,7 +2840,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="N4" s="54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -4347,7 +2993,7 @@
         <v>184</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="61"/>
+      <c r="C10" s="58"/>
       <c r="E10" s="13"/>
       <c r="F10" s="20" t="s">
         <v>179</v>
@@ -4366,7 +3012,7 @@
         <v>178</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="62"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="28"/>
       <c r="E11" s="13"/>
       <c r="F11" s="20" t="s">
@@ -5907,10 +4553,10 @@
         <v>289</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>160</v>
@@ -7677,7 +6323,7 @@
         <v>625.80713668312967</v>
       </c>
       <c r="M14" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -11092,57 +9738,35 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
       <c r="K40"/>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4" t="s">
-        <v>325</v>
-      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
       <c r="K41"/>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4" t="s">
-        <v>326</v>
-      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
       <c r="K42"/>
       <c r="L42" s="5"/>
     </row>
@@ -11550,15 +10174,15 @@
     <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="L2" s="8" t="s">
         <v>293</v>
       </c>
@@ -11566,66 +10190,66 @@
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
       <c r="L3" s="54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
       <c r="L4" s="54" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
       <c r="L5" s="54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="L6" s="54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L7" s="54" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F8" s="35"/>
       <c r="L8" s="54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -12530,7 +11154,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -12569,7 +11193,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="11"/>
       <c r="K3" s="54" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -12601,7 +11225,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="54" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
@@ -12633,7 +11257,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -12665,7 +11289,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="54" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -12790,7 +11414,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12811,12 +11434,12 @@
       <c r="D2" s="51"/>
     </row>
     <row r="3" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="K3" s="8" t="s">
         <v>293</v>
       </c>
@@ -12971,12 +11594,12 @@
       <c r="D2" s="51"/>
     </row>
     <row r="3" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="K3" s="8" t="s">
         <v>293</v>
       </c>
@@ -13126,12 +11749,12 @@
       <c r="F2" s="51"/>
     </row>
     <row r="3" spans="6:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
       <c r="L3" s="8" t="s">
         <v>293</v>
       </c>
